--- a/Team-Data/2008-09/12-29-2008-09.xlsx
+++ b/Team-Data/2008-09/12-29-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -915,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.871</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
         <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.373</v>
+        <v>0.369</v>
       </c>
       <c r="O3" t="n">
         <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>16.5</v>
@@ -975,43 +975,43 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -1032,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1175,7 +1175,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1187,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1208,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1279,109 +1279,109 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.414</v>
+        <v>0.433</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.799</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1390,46 +1390,46 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT5" t="n">
         <v>14</v>
       </c>
-      <c r="AT5" t="n">
-        <v>13</v>
-      </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
         <v>24</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1461,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.897</v>
+        <v>0.867</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
-        <v>79.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.2</v>
+        <v>101.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1548,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1566,52 +1566,52 @@
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>12</v>
       </c>
       <c r="AR6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU6" t="n">
         <v>15</v>
       </c>
-      <c r="AS6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>13</v>
-      </c>
       <c r="AV6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,22 +1721,22 @@
         <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1748,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1781,10 +1781,10 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1793,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1903,7 +1903,7 @@
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1918,7 +1918,7 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1942,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -1966,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>22</v>
@@ -2121,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2139,10 +2139,10 @@
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>12</v>
@@ -2291,13 +2291,13 @@
         <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
@@ -2333,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2461,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
@@ -2494,13 +2494,13 @@
         <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2512,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ11" t="n">
         <v>4</v>
@@ -2524,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2670,13 +2670,13 @@
         <v>28</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2691,10 +2691,10 @@
         <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2703,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2813,7 +2813,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2831,7 +2831,7 @@
         <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2861,10 +2861,10 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
@@ -2917,85 +2917,85 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.828</v>
+        <v>0.833</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -3016,16 +3016,16 @@
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
@@ -3177,7 +3177,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3189,7 +3189,7 @@
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -3210,7 +3210,7 @@
         <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3359,7 +3359,7 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3389,19 +3389,19 @@
         <v>9</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
@@ -3413,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
@@ -3434,7 +3434,7 @@
         <v>19</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.452</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3481,43 +3481,43 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
       </c>
       <c r="M17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R17" t="n">
         <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.8</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3526,22 +3526,22 @@
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3553,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>22</v>
@@ -3571,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3580,25 +3580,25 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3613,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3771,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
@@ -3789,7 +3789,7 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
@@ -3905,7 +3905,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3917,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
         <v>20</v>
@@ -3932,10 +3932,10 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -4269,7 +4269,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4284,7 +4284,7 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="n">
         <v>2</v>
@@ -4308,10 +4308,10 @@
         <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4451,7 +4451,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4493,13 +4493,13 @@
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>25</v>
@@ -4517,7 +4517,7 @@
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>27</v>
@@ -4633,10 +4633,10 @@
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4678,7 +4678,7 @@
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
         <v>10</v>
@@ -4815,16 +4815,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -4848,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4860,10 +4860,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4881,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -5003,7 +5003,7 @@
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -5012,10 +5012,10 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5072,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5101,124 +5101,124 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
         <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.613</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
         <v>8</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>7</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>2</v>
@@ -5227,31 +5227,31 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>12</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5361,7 +5361,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5397,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5412,7 +5412,7 @@
         <v>28</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV27" t="n">
         <v>23</v>
@@ -5430,7 +5430,7 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB27" t="n">
         <v>20</v>
@@ -5543,7 +5543,7 @@
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5564,7 +5564,7 @@
         <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5615,7 +5615,7 @@
         <v>29</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
         <v>9</v>
@@ -5725,10 +5725,10 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>20</v>
@@ -5749,16 +5749,16 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
       </c>
       <c r="AN29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO29" t="n">
         <v>11</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5928,7 +5928,7 @@
         <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5973,13 +5973,13 @@
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
         <v>12</v>

--- a/Team-Data/2008-09/12-29-2008-09.xlsx
+++ b/Team-Data/2008-09/12-29-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667</v>
+        <v>0.655</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
@@ -687,43 +754,43 @@
         <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L2" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M2" t="n">
         <v>21.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.384</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R2" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V2" t="n">
         <v>13.4</v>
       </c>
       <c r="W2" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="X2" t="n">
         <v>5.3</v>
@@ -738,28 +805,28 @@
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -774,16 +841,16 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>17</v>
@@ -792,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -801,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="AW2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -819,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.871</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
         <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.373</v>
+        <v>0.369</v>
       </c>
       <c r="O3" t="n">
         <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>16.5</v>
@@ -908,37 +975,37 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1120,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1141,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1156,16 +1223,16 @@
         <v>29</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1174,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -1227,142 +1294,142 @@
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.389</v>
+        <v>0.386</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
         <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP5" t="n">
         <v>18</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>23</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>24</v>
       </c>
       <c r="BA5" t="n">
         <v>24</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.897</v>
+        <v>0.867</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
-        <v>79.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.2</v>
+        <v>101.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,70 +1548,70 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>12</v>
       </c>
       <c r="AR6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU6" t="n">
         <v>15</v>
       </c>
-      <c r="AS6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>13</v>
-      </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF7" t="n">
         <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1678,10 +1745,10 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1708,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
@@ -1717,19 +1784,19 @@
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.625</v>
+        <v>0.645</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J8" t="n">
         <v>78.3</v>
@@ -1785,40 +1852,40 @@
         <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O8" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="P8" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="T8" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="W8" t="n">
         <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y8" t="n">
         <v>5.8</v>
@@ -1827,31 +1894,31 @@
         <v>22.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.3</v>
+        <v>102.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
@@ -1875,22 +1942,22 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1899,19 +1966,19 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>22</v>
       </c>
       <c r="BA8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.621</v>
+        <v>0.607</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M9" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O9" t="n">
         <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.762</v>
+        <v>0.767</v>
       </c>
       <c r="R9" t="n">
         <v>10.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U9" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V9" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
@@ -2003,25 +2070,25 @@
         <v>5.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA9" t="n">
         <v>20.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
@@ -2033,13 +2100,13 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>23</v>
@@ -2048,16 +2115,16 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>22</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
         <v>22</v>
@@ -2066,19 +2133,19 @@
         <v>19</v>
       </c>
       <c r="AT9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU9" t="n">
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2090,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="BB9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
         <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.303</v>
+        <v>0.281</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2140,49 +2207,49 @@
         <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.334</v>
+        <v>0.328</v>
       </c>
       <c r="O10" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="P10" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.762</v>
+        <v>0.757</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U10" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y10" t="n">
         <v>6.1</v>
@@ -2191,19 +2258,19 @@
         <v>20.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>105.4</v>
+        <v>105</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.9</v>
+        <v>-6.3</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
         <v>18</v>
@@ -2230,7 +2297,7 @@
         <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2242,7 +2309,7 @@
         <v>17</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS10" t="n">
         <v>20</v>
@@ -2251,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
         <v>18</v>
@@ -2266,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.625</v>
+        <v>0.645</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
         <v>79.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
         <v>19.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O11" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P11" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0.8179999999999999</v>
@@ -2349,19 +2416,19 @@
         <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T11" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U11" t="n">
         <v>20</v>
       </c>
       <c r="V11" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
         <v>3.8</v>
@@ -2370,31 +2437,31 @@
         <v>5.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -2403,7 +2470,7 @@
         <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,34 +2479,34 @@
         <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
       </c>
       <c r="AW11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2448,16 +2515,16 @@
         <v>27</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB11" t="n">
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2609,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2618,13 +2685,13 @@
         <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
         <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2636,10 +2703,10 @@
         <v>19</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>26</v>
@@ -2761,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2794,10 +2861,10 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -2850,85 +2917,85 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.828</v>
+        <v>0.833</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
@@ -2982,13 +3049,13 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
@@ -2997,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -3032,43 +3099,43 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I15" t="n">
         <v>35.6</v>
       </c>
       <c r="J15" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L15" t="n">
         <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="N15" t="n">
         <v>0.336</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
         <v>0.751</v>
@@ -3077,13 +3144,13 @@
         <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T15" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U15" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="V15" t="n">
         <v>14.5</v>
@@ -3092,37 +3159,37 @@
         <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -3131,7 +3198,7 @@
         <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,10 +3207,10 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3155,7 +3222,7 @@
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3176,10 +3243,10 @@
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -3304,7 +3371,7 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3316,28 +3383,28 @@
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM16" t="n">
         <v>9</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>22</v>
@@ -3346,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
@@ -3364,10 +3431,10 @@
         <v>23</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.452</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,43 +3481,43 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
       </c>
       <c r="M17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R17" t="n">
         <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.8</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3459,37 +3526,37 @@
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -3513,25 +3580,25 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3543,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.172</v>
       </c>
       <c r="H18" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J18" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>15.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="O18" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="P18" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
         <v>20.3</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
         <v>6.2</v>
@@ -3644,19 +3711,19 @@
         <v>6.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.7</v>
+        <v>95.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.9</v>
+        <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3668,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
@@ -3686,13 +3753,13 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ18" t="n">
         <v>19</v>
@@ -3701,34 +3768,34 @@
         <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -3760,52 +3827,52 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J19" t="n">
         <v>81</v>
       </c>
       <c r="K19" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
         <v>20.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.372</v>
+        <v>0.378</v>
       </c>
       <c r="O19" t="n">
         <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.79</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
         <v>40.9</v>
@@ -3814,31 +3881,31 @@
         <v>18.7</v>
       </c>
       <c r="V19" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="AA19" t="n">
         <v>21.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,31 +3917,31 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
@@ -3886,16 +3953,16 @@
         <v>22</v>
       </c>
       <c r="AT19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3907,13 +3974,13 @@
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4090,7 @@
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4065,7 +4132,7 @@
         <v>27</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>26</v>
@@ -4086,16 +4153,16 @@
         <v>3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -4202,28 +4269,28 @@
         <v>-3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="n">
         <v>2</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4244,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4265,13 +4332,13 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>7</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB21" t="n">
         <v>3</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -4306,55 +4373,55 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>0.094</v>
+        <v>0.097</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J22" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M22" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O22" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P22" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="R22" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S22" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T22" t="n">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="U22" t="n">
         <v>19.6</v>
@@ -4372,19 +4439,19 @@
         <v>5.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC22" t="n">
         <v>-9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4405,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4414,31 +4481,31 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>24</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>25</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
         <v>20</v>
@@ -4450,10 +4517,10 @@
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
         <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.774</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L23" t="n">
         <v>9.699999999999999</v>
@@ -4518,58 +4585,58 @@
         <v>25.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O23" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="P23" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.711</v>
+        <v>0.712</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
         <v>18.7</v>
       </c>
       <c r="V23" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z23" t="n">
         <v>20</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>100.6</v>
+        <v>101.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4581,10 +4648,10 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4611,19 +4678,19 @@
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
         <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV23" t="n">
         <v>15</v>
       </c>
       <c r="AW23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX23" t="n">
         <v>3</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>0.414</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,19 +4755,19 @@
         <v>36.2</v>
       </c>
       <c r="J24" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M24" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.295</v>
+        <v>0.299</v>
       </c>
       <c r="O24" t="n">
         <v>18.3</v>
@@ -4709,67 +4776,67 @@
         <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R24" t="n">
         <v>13.2</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T24" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U24" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V24" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W24" t="n">
         <v>7.6</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z24" t="n">
         <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB24" t="n">
         <v>94.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4784,19 +4851,19 @@
         <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS24" t="n">
         <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4805,16 +4872,16 @@
         <v>26</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.586</v>
+        <v>0.571</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J25" t="n">
-        <v>76.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.499</v>
@@ -4879,64 +4946,64 @@
         <v>7.1</v>
       </c>
       <c r="M25" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.397</v>
+        <v>0.399</v>
       </c>
       <c r="O25" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P25" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>20.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4945,7 +5012,7 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>28</v>
@@ -4960,7 +5027,7 @@
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4969,16 +5036,16 @@
         <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
         <v>12</v>
@@ -4987,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
         <v>18</v>
@@ -4996,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5005,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -5034,157 +5101,157 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
         <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.613</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
         <v>13</v>
       </c>
-      <c r="AE26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF26" t="n">
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
         <v>8</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>7</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
       </c>
       <c r="AT26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
         <v>18</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="BB26" t="n">
         <v>14</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>12</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,10 +5373,10 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
@@ -5324,13 +5391,13 @@
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
         <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5342,16 +5409,16 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU27" t="n">
         <v>22</v>
       </c>
       <c r="AV27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW27" t="n">
         <v>24</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5366,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="BB27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5497,7 +5564,7 @@
         <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5506,7 +5573,7 @@
         <v>4</v>
       </c>
       <c r="AN28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5539,19 +5606,19 @@
         <v>27</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>0.387</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J29" t="n">
-        <v>79.09999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.448</v>
       </c>
       <c r="L29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O29" t="n">
         <v>19.2</v>
       </c>
       <c r="P29" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.83</v>
+        <v>0.832</v>
       </c>
       <c r="R29" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S29" t="n">
         <v>30.1</v>
       </c>
       <c r="T29" t="n">
-        <v>39.2</v>
+        <v>38.9</v>
       </c>
       <c r="U29" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
         <v>13.4</v>
@@ -5643,28 +5710,28 @@
         <v>5.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
         <v>20</v>
@@ -5676,25 +5743,25 @@
         <v>27</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5721,16 +5788,16 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" t="n">
         <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.576</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J30" t="n">
         <v>79.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.475</v>
+        <v>0.473</v>
       </c>
       <c r="L30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M30" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="O30" t="n">
         <v>20.6</v>
       </c>
       <c r="P30" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
         <v>12</v>
@@ -5813,10 +5880,10 @@
         <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V30" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W30" t="n">
         <v>9.300000000000001</v>
@@ -5825,25 +5892,25 @@
         <v>5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5852,13 +5919,13 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI30" t="n">
         <v>8</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5870,16 +5937,16 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5897,25 +5964,25 @@
         <v>29</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>23</v>
       </c>
       <c r="G31" t="n">
-        <v>0.207</v>
+        <v>0.179</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
@@ -5962,67 +6029,67 @@
         <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.441</v>
       </c>
       <c r="L31" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M31" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.314</v>
+        <v>0.319</v>
       </c>
       <c r="O31" t="n">
         <v>17.3</v>
       </c>
       <c r="P31" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="T31" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V31" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6</v>
+        <v>-6.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6043,16 +6110,16 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6061,37 +6128,37 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW31" t="n">
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-29-2008-09</t>
+          <t>2008-12-29</t>
         </is>
       </c>
     </row>
